--- a/Unidad 4/P5_Asociador_Lineal/Instancia_Ejemplo1.xlsx
+++ b/Unidad 4/P5_Asociador_Lineal/Instancia_Ejemplo1.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2024_3/Programas/U3_Clase/Asociador_Lineal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Desktop/PIP_2025_1_Eq0/Unidad 4/P5_Asociador_Lineal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB54C77-6BD9-FA4E-B87E-C4ADC50700CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A645EDE-547D-1547-AD80-D317283D2175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="760" windowWidth="29600" windowHeight="15820" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
+    <workbookView xWindow="4160" yWindow="760" windowWidth="26240" windowHeight="14780" activeTab="2" xr2:uid="{5D9FA4AE-9CF3-4BB0-8541-E4FEE9ACE7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="EJERCICIO 2" sheetId="4" r:id="rId2"/>
+    <sheet name="EJERCICIO 3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EJERCICIO 2'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -133,13 +138,67 @@
   </si>
   <si>
     <t>Nombre 9</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 1</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 2</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 3</t>
+  </si>
+  <si>
+    <t>ATRIBUTO 4</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>15 * CLASE</t>
+  </si>
+  <si>
+    <t>EJ: 3 CLASES</t>
+  </si>
+  <si>
+    <t>45 REGISTROS</t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
+  </si>
+  <si>
+    <t>TOTAL DE GENTE</t>
+  </si>
+  <si>
+    <t>DISTANCIA DISPUESTOS A MOVERSE</t>
+  </si>
+  <si>
+    <t>LUGARES A LOS CUALES SE PUEDA IR…</t>
+  </si>
+  <si>
+    <t>PLAYA</t>
+  </si>
+  <si>
+    <t>FERIA</t>
+  </si>
+  <si>
+    <t>CINE</t>
+  </si>
+  <si>
+    <t>DINERO</t>
+  </si>
+  <si>
+    <t>NO VALIDA</t>
+  </si>
+  <si>
+    <t>EJERCICIO 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +263,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +308,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -540,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085510A3-C276-47B6-BB5B-CC503AD90EA4}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="162" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1099,4 +1202,872 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D197B804-FF69-6D46-A0D0-218B5A1F80EB}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="15">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15">
+        <v>9</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="15">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15">
+        <v>7</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="17">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="15">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15">
+        <v>6</v>
+      </c>
+      <c r="E10" s="15">
+        <v>8</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15">
+        <v>6</v>
+      </c>
+      <c r="G14" s="17">
+        <v>9</v>
+      </c>
+      <c r="H14" s="15">
+        <v>7</v>
+      </c>
+      <c r="I14" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17">
+        <v>8</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15">
+        <v>6</v>
+      </c>
+      <c r="G15" s="17">
+        <v>5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>8</v>
+      </c>
+      <c r="I15" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="15">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17">
+        <v>9</v>
+      </c>
+      <c r="D16" s="15">
+        <v>6</v>
+      </c>
+      <c r="E16" s="15">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15">
+        <v>6</v>
+      </c>
+      <c r="G16" s="17">
+        <v>4</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9</v>
+      </c>
+      <c r="I16" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="15">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15">
+        <v>6</v>
+      </c>
+      <c r="F17" s="15">
+        <v>7</v>
+      </c>
+      <c r="G17" s="17">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15">
+        <v>8</v>
+      </c>
+      <c r="I17" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>0</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>0</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{D197B804-FF69-6D46-A0D0-218B5A1F80EB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition ref="G1:G10"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EE527A-2549-8544-BA87-5BC838D14ACC}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10">
+        <v>400</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10">
+        <v>750</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="10">
+        <v>400</v>
+      </c>
+      <c r="C20" s="10">
+        <v>750</v>
+      </c>
+      <c r="D20" s="12">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="10">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="12">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5</v>
+      </c>
+      <c r="E23" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>